--- a/biology/Botanique/Erysimum_caboverdeanum/Erysimum_caboverdeanum.xlsx
+++ b/biology/Botanique/Erysimum_caboverdeanum/Erysimum_caboverdeanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erysimum caboverdeanum est une espèce de plantes à fleurs de la famille des Brassicaceae. C'est une espèce endémique du Cap-Vert que l'on ne trouve que sur l'île volcanique de Fogo, sur les lapilli couvrant les abords de la Bordeira, entre 1 600 m et 2 300 m[1].
-Localement cette espèce est connue sous le nom de « cravo-brabo »[1].
-Elle est couramment utilisée en médecine traditionnelle[1], notamment sous forme d'infusion, comme emménagogue[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erysimum caboverdeanum est une espèce de plantes à fleurs de la famille des Brassicaceae. C'est une espèce endémique du Cap-Vert que l'on ne trouve que sur l'île volcanique de Fogo, sur les lapilli couvrant les abords de la Bordeira, entre 1 600 m et 2 300 m.
+Localement cette espèce est connue sous le nom de « cravo-brabo ».
+Elle est couramment utilisée en médecine traditionnelle, notamment sous forme d'infusion, comme emménagogue.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète caboverdeanum signifie « cap-verdien »
 </t>
